--- a/Results_Saving/Small_Scale_Network/topo_mesh.xlsx
+++ b/Results_Saving/Small_Scale_Network/topo_mesh.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20400"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fymeng\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Codes\Python_work\2023_Thesis_Codes\Service_availability\Results_Saving\Small_Scale_Network\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD68FAB9-7876-4FB1-8E7C-5A99C1F24760}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A3E5CE-9491-4FDF-A989-4AF459D35AFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="10" windowWidth="16090" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>node_pair</t>
   </si>
@@ -32,69 +32,33 @@
   </si>
   <si>
     <t>fail_rate</t>
-  </si>
-  <si>
-    <t>(0, 9)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, 1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, 3)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, 5)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, 13)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, 5)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>(1, 4)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(1, 6)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, 10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>(4, 5)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(4, 7)</t>
+    <t>(3, 5)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(4, 3)</t>
+    <t>(1, 2)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(4, 11)</t>
+    <t>(1, 3)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(3, 8)</t>
+    <t>(2, 3)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(3, 12)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(3, 5)</t>
+    <t>(2, 4)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -523,7 +487,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -532,7 +496,7 @@
     <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,9 +510,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2">
         <v>11.21029787</v>
@@ -560,9 +524,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2">
         <v>13.3590737</v>
@@ -574,9 +538,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2">
         <v>16.569296319999999</v>
@@ -588,9 +552,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2">
         <v>15.15196312</v>
@@ -602,9 +566,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2">
         <v>20.324906030000001</v>
@@ -618,7 +582,7 @@
     </row>
     <row r="7" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3">
         <v>13.88824908</v>
@@ -630,145 +594,46 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2">
         <v>18.438422339999999</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2">
-        <v>14.495058480000001</v>
-      </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>0.1</v>
-      </c>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="3">
-        <v>20.994236919999999</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="D10">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="2">
-        <v>17.951787589999999</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="2">
-        <v>17.90937194</v>
-      </c>
-      <c r="C12">
-        <v>10</v>
-      </c>
-      <c r="D12">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="2">
-        <v>20.080608399999999</v>
-      </c>
-      <c r="C13">
-        <v>10</v>
-      </c>
-      <c r="D13">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="2">
-        <v>20.2695796</v>
-      </c>
-      <c r="C14">
-        <v>10</v>
-      </c>
-      <c r="D14">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="2">
-        <v>22.492114050000001</v>
-      </c>
-      <c r="C15">
-        <v>10</v>
-      </c>
-      <c r="D15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="2">
-        <v>16.607673699999999</v>
-      </c>
-      <c r="C16">
-        <v>10</v>
-      </c>
-      <c r="D16">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="2">
-        <v>20.2695796</v>
-      </c>
-      <c r="C17">
-        <v>10</v>
-      </c>
-      <c r="D17">
-        <v>0.1</v>
-      </c>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Results_Saving/Small_Scale_Network/topo_mesh.xlsx
+++ b/Results_Saving/Small_Scale_Network/topo_mesh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Codes\Python_work\2023_Thesis_Codes\Service_availability\Results_Saving\Small_Scale_Network\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodingProjects\Service_availability_evaluating\Results_Saving\Small_Scale_Network\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A3E5CE-9491-4FDF-A989-4AF459D35AFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C936E37-56B5-4F56-A578-3606DFAD8986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="10" windowWidth="16090" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -164,9 +164,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -204,9 +204,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -239,26 +239,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -291,26 +274,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -487,7 +453,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -602,7 +568,7 @@
         <v>18.438422339999999</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D8">
         <v>0.1</v>
